--- a/biology/Histoire de la zoologie et de la botanique/Charles_Roulier/Charles_Roulier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Roulier/Charles_Roulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Frantzévitch Roulier (en russe : Карл Францевич Рулье, Karl Frantsevitch Roulie), né le 20 avril 1814 à Nijni Novgorod et mort le 22 avril 1858 à Moscou, est un biologiste, zoologiste et naturaliste russe qui fut directeur du musée zoologique de Moscou et professeur à l'université de Moscou.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Roulier est le fils d'un cordonnier français établi en Russie et d'une sage-femme. Il est éduqué à domicile, puis dans des pensions privées. Il s'installe à Moscou en 1829 pour entrer à l'Académie médico-chirurgicale de Moscou, dont il devient étudiant du troisième cours en 1831, auprès de Gotthelf Fischer von Waldheim et d'Alexeï Leontievitch Lovetski. Il termine l'Académie en 1833 avec une première médaille d'argent. Il entre comme médecin militaire au régiment des dragons de Riajsk, où il demeure jusqu'en 1836.
 L'exercice de la médecine ne lui convient pas et il prend avec joie la proposition du président de l'Académie médico-chirurgicale de devenir répétiteur auprès de l'Académie. Il présente une thèse sur les hémorroïdes en 1837 et reçoit le titre de docteur en médecine, après quoi Roulier enseigne la minéralogie et la zoologie en qualité de professeur-assistant. Parallèlement il travaille au musée zoologique de l'université, dont il est conservateur à partir de 1837, puis directeur à partir de 1840. Cette année-là, il commence à donner des cours magistraux de zoologie à l'université de Moscou. Il est nommé professeur extraordinaire en 1842 à la chaire de zoologie et professeur ordinaire en 1850.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ru) О влиянии наружных условий на жизнь животных [ De l'influence dans la vie animale des conditions extérieures] // Библиотека для воспитания [Bibliothèque de l'éducation], 1845. 2e partie, pp. 190–220 ; 3e partie, pp. 51–86.
 (ru) Жизнь животных по отношению к внешним условиям : три публ. лекции, читанные ординарным профессором К. Рулье в 1851 г. [La vie des animaux en relation avec les conditions extérieures : trois cours du professeur ordinaire K. Roulié donnés en 1851] – Moscou : université de Moscou, 1852. – 121 pages.
